--- a/Practicas.xlsx
+++ b/Practicas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FD3BD8-2160-41B3-8A85-CFF42A684ABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807B509-125F-4F24-A86A-E58165843F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="B2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,7 +602,9 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
@@ -652,7 +654,9 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>

--- a/Practicas.xlsx
+++ b/Practicas.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A807B509-125F-4F24-A86A-E58165843F0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6C4DA8-9743-427C-8237-6C75843A4A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidad 3" sheetId="1" r:id="rId1"/>
+    <sheet name="Admon Proyecto 12 -16 Junio" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Nombre</t>
   </si>
@@ -131,16 +132,87 @@
   </si>
   <si>
     <t>Practica 03</t>
+  </si>
+  <si>
+    <t>Semana
+12 al 19 Junio</t>
+  </si>
+  <si>
+    <t>Semana
+03 al 07 Julio</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/ymFWYkfr/belle-robe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://trello.com/b/ymFWYkfr/belle-robe </t>
+  </si>
+  <si>
+    <t>https://trello.com/b/dM9lA1tL/vendemodamx</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/10cmirC8/repositorios</t>
+  </si>
+  <si>
+    <t>Se sugiere tener evidencia de acuerdos en los Daylis
+Modelo Relacional v2
+Modelo Relacional no se indica fecha
+Al parecer según el Trello, el proyecto sigue parado
+No hay evidencia de comunicación con los de Redes
+No hay evidencia de Pull Request</t>
+  </si>
+  <si>
+    <t>El último Daily fue el 31 de mayo
+En su tablero no es claro las actividades y seguimiento que se realizan en el Sprint
+Lo que se acordó para la semana del 12 al 16 no se cumplió
+No hay evidencia de comunicación con los de Redes
+No hay evidencia de Pull Request</t>
+  </si>
+  <si>
+    <t>Bien por evidencia de Pull Request
+Bien por evidencia de criterios
+Creación de CRUD de usuarios: no se comenta
+¿Donde de encuentra documento de nomenclatura Camel Case?
+Bien por su avance en proyecto
+Bien por su planeación</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/y9S9JAZY/sprint-01</t>
+  </si>
+  <si>
+    <t>HU05- Desarrollo del componente Registro: No hay Pull Request; indica que está vencido ¿Qué acuerdos han tomado?
+No hay evidencia de contacto con equipo de Redes para el despliegue de manera local o en la nube
+No se observan las historias de usuario</t>
+  </si>
+  <si>
+    <t>https://trello.com/b/HYDjrasH/sprint-1-administrativa</t>
+  </si>
+  <si>
+    <t>Bien por las historias de usuario
+HU02 -Inicio de Sesión: Los criterios son ambiguos; no hay evidencia de asignación de funcionalidad a miembros de equipo.; No hay comentarios
+Bien por sus Pull Request; 
+No hay evidencia de comunicación de equipo de redes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,15 +235,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -463,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -707,4 +790,262 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09DFB26F-044F-4C6C-AD6B-05BE0506A533}">
+  <dimension ref="B2:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39" style="3" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="str">
+        <f>'Unidad 3'!B3</f>
+        <v>Karla Denisse</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>'Unidad 3'!C3</f>
+        <v>Aguilar Castillo</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="str">
+        <f>'Unidad 3'!B4</f>
+        <v>Jessy Javier</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>'Unidad 3'!C4</f>
+        <v>Araiza Cervantes</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="str">
+        <f>'Unidad 3'!B5</f>
+        <v>Cristian Israel</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>'Unidad 3'!C5</f>
+        <v>Buclon Pedroza</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="str">
+        <f>'Unidad 3'!B6</f>
+        <v>Luis Gustavo</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>'Unidad 3'!C6</f>
+        <v>García Carrillo</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="str">
+        <f>'Unidad 3'!B7</f>
+        <v>Alejandro Rafael</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>'Unidad 3'!C7</f>
+        <v>Guerrero Lozano</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="str">
+        <f>'Unidad 3'!B8</f>
+        <v>Itzel Juliza</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>'Unidad 3'!C8</f>
+        <v>Guerrero Rodríguez</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="str">
+        <f>'Unidad 3'!B9</f>
+        <v>Julio Johan</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>'Unidad 3'!C9</f>
+        <v>Jaramillo Mejia</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="str">
+        <f>'Unidad 3'!B10</f>
+        <v>David Enrique</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>'Unidad 3'!C10</f>
+        <v>López Juárez</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="str">
+        <f>'Unidad 3'!B11</f>
+        <v>Pedro Emmanuel</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>'Unidad 3'!C11</f>
+        <v>Martinez Rodriguez</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="str">
+        <f>'Unidad 3'!B12</f>
+        <v>María Guadalupe</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>'Unidad 3'!C12</f>
+        <v>Mendoza Ramírez</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="str">
+        <f>'Unidad 3'!B13</f>
+        <v>Juan Luis</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>'Unidad 3'!C13</f>
+        <v>Negrete Labrada</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="str">
+        <f>'Unidad 3'!B14</f>
+        <v>Paola Guadalupe</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>'Unidad 3'!C14</f>
+        <v>Patlan Gonzalez</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="str">
+        <f>'Unidad 3'!B15</f>
+        <v>Jorge Alejandro</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>'Unidad 3'!C15</f>
+        <v>Rico Arvizu</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="str">
+        <f>'Unidad 3'!B16</f>
+        <v>Gerardo Tonathiu</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>'Unidad 3'!C16</f>
+        <v>Rojas Torres</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="str">
+        <f>'Unidad 3'!B17</f>
+        <v>Fatima Natalia</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>'Unidad 3'!C17</f>
+        <v>Ruiz Rivera</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="str">
+        <f>'Unidad 3'!B18</f>
+        <v>Diego</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>'Unidad 3'!C18</f>
+        <v>Torres Pérez</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{8CE9EA8B-C9F6-4811-9E85-A9E3DB8988A9}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{75D32284-02AF-4F21-BF82-25AE3B7487A3}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{ADA118A3-F472-4D2B-BEFA-B2B7952B6A77}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{8405F9C1-CB9E-46D4-8114-AC4B09493264}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{2053DBEA-7C14-4DC3-A860-B1E157F47B08}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{AEAB1DED-4A57-4AFC-BEE6-BE1EEECB016D}"/>
+    <hyperlink ref="D15" r:id="rId7" xr:uid="{89690A31-62B2-4CAF-98D5-1FCB53945AB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>